--- a/biology/Médecine/1395_en_santé_et_médecine/1395_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1395_en_santé_et_médecine/1395_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1395_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1395_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1395 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1395_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1395_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2 août : fondation du Hofje van Bakenes (« hospice de Bakenes »), à Haarlem, conformément aux dispositions testamentaires de Dirck van Bakenes, riche marchand de la ville[1].
-L'amiral Domenico d’Allemagna fait construire pour les  frères hospitaliers de Saint-Jean l'hospice Sainte-Catherine de Rhodes, destiné à l'accueil de « tous les pèlerins qui vont et viennent de Jérusalem et autres lieux saints outre-mer, pourvu qu’ils soient nobles[2] ».
-Fondation d'un hôpital à Biecz en Pologne, doté par la reine Hedwige et par des commerçants du lieu[3].
-Selon le premier inventaire conservé, la bibliothèque de la faculté de médecine de Paris comporte treize manuscrits, dont elle ne détient plus aucun[4].
-Régnault Fréron, Premier médecin du roi Charles VI depuis 1387, est chassé de la cour pour n'avoir pu contrôler un nouvel accès de folie de son patient[5].
-Enguerrand, chirurgien de Charles VI, et Fasse de Saint-Séverin, chirurgien de Valentine Visconti, duchesse de Touraine puis d'Orléans, sont envoyés à « Jean sans Peur, alors comte de Nevers, qui avait l'épaule rompue[6] ».
-1395-1398 : le grand hôpital ou hôpital des bourgeois de Strasbourg, ayant été déplacé hors les murs après l'épidémie de 1316, puis rasé en 1392 à l'occasion d'une guerre entre la ville et son évêque Frédéric II, est reconstruit dans l'enceinte de la ville, à l'emplacement qu'occupe aujourd'hui l'hôpital civil[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2 août : fondation du Hofje van Bakenes (« hospice de Bakenes »), à Haarlem, conformément aux dispositions testamentaires de Dirck van Bakenes, riche marchand de la ville.
+L'amiral Domenico d’Allemagna fait construire pour les  frères hospitaliers de Saint-Jean l'hospice Sainte-Catherine de Rhodes, destiné à l'accueil de « tous les pèlerins qui vont et viennent de Jérusalem et autres lieux saints outre-mer, pourvu qu’ils soient nobles ».
+Fondation d'un hôpital à Biecz en Pologne, doté par la reine Hedwige et par des commerçants du lieu.
+Selon le premier inventaire conservé, la bibliothèque de la faculté de médecine de Paris comporte treize manuscrits, dont elle ne détient plus aucun.
+Régnault Fréron, Premier médecin du roi Charles VI depuis 1387, est chassé de la cour pour n'avoir pu contrôler un nouvel accès de folie de son patient.
+Enguerrand, chirurgien de Charles VI, et Fasse de Saint-Séverin, chirurgien de Valentine Visconti, duchesse de Touraine puis d'Orléans, sont envoyés à « Jean sans Peur, alors comte de Nevers, qui avait l'épaule rompue ».
+1395-1398 : le grand hôpital ou hôpital des bourgeois de Strasbourg, ayant été déplacé hors les murs après l'épidémie de 1316, puis rasé en 1392 à l'occasion d'une guerre entre la ville et son évêque Frédéric II, est reconstruit dans l'enceinte de la ville, à l'emplacement qu'occupe aujourd'hui l'hôpital civil.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1395_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1395_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jean de Granville (né à une date inconnue), médecin accusé d'avoir empoisonné le comte Rouge pourtant très vraisemblablement mort du tétanos[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jean de Granville (né à une date inconnue), médecin accusé d'avoir empoisonné le comte Rouge pourtant très vraisemblablement mort du tétanos.</t>
         </is>
       </c>
     </row>
